--- a/ig/ig-starter-r4/branch/main/StructureDefinition-veterinarian.xlsx
+++ b/ig/ig-starter-r4/branch/main/StructureDefinition-veterinarian.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T09:07:52+00:00</t>
+    <t>2022-05-26T18:27:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ig-starter-r4/branch/main/StructureDefinition-veterinarian.xlsx
+++ b/ig/ig-starter-r4/branch/main/StructureDefinition-veterinarian.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T18:27:43+00:00</t>
+    <t>2022-06-06T21:38:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
